--- a/figures/BenchGC.xlsx
+++ b/figures/BenchGC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="14800" windowWidth="33860" windowHeight="26180" tabRatio="500"/>
+    <workbookView xWindow="2100" yWindow="0" windowWidth="35580" windowHeight="19460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="23">
   <si>
     <t>Load</t>
   </si>
@@ -74,6 +74,21 @@
   <si>
     <t xml:space="preserve">Full GC </t>
   </si>
+  <si>
+    <t>Widlfly-Compact-16</t>
+  </si>
+  <si>
+    <t>Widlfly-Sweep-16</t>
+  </si>
+  <si>
+    <t>Prop</t>
+  </si>
+  <si>
+    <t>Sweep-16</t>
+  </si>
+  <si>
+    <t>Compact-16</t>
+  </si>
 </sst>
 </file>
 
@@ -124,8 +139,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="299">
+  <cellStyleXfs count="331">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -431,7 +478,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="299">
+  <cellStyles count="331">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -581,6 +628,22 @@
     <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -730,6 +793,22 @@
     <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -780,29 +859,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$42:$B$43</c:f>
+              <c:f>Sheet1!$B$42:$B$45</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Sweep</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compact-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sweep-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$42:$C$43</c:f>
+              <c:f>Sheet1!$C$42:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.333333333333257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.333333333333485</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.666666666666742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,28 +916,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$42:$B$43</c:f>
+              <c:f>Sheet1!$B$42:$B$45</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Sweep</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compact-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sweep-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$42:$D$43</c:f>
+              <c:f>Sheet1!$D$42:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -870,29 +973,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$42:$B$43</c:f>
+              <c:f>Sheet1!$B$42:$B$45</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Sweep</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compact-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sweep-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$42:$E$43</c:f>
+              <c:f>Sheet1!$E$42:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>288.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>286.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>289.9999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>295.6666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,29 +1030,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$42:$B$43</c:f>
+              <c:f>Sheet1!$B$42:$B$45</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Sweep</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compact-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sweep-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$42:$F$43</c:f>
+              <c:f>Sheet1!$F$42:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>316.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>806.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>829.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>314.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -953,11 +1080,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2114442376"/>
-        <c:axId val="2078433320"/>
+        <c:axId val="-2134749304"/>
+        <c:axId val="-2134752440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2114442376"/>
+        <c:axId val="-2134749304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +1093,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078433320"/>
+        <c:crossAx val="-2134752440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -974,7 +1101,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2078433320"/>
+        <c:axId val="-2134752440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,7 +1112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114442376"/>
+        <c:crossAx val="-2134749304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1033,7 +1160,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$46</c:f>
+              <c:f>Sheet1!$C$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1045,29 +1172,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$47:$B$48</c:f>
+              <c:f>Sheet1!$B$50:$B$53</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Sweep</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compact-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sweep-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$47:$C$48</c:f>
+              <c:f>Sheet1!$C$50:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>422554.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>343677.3333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95902.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105655.3333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,7 +1217,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$46</c:f>
+              <c:f>Sheet1!$D$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1090,29 +1229,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$47:$B$48</c:f>
+              <c:f>Sheet1!$B$50:$B$53</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Sweep</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compact-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sweep-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$47:$D$48</c:f>
+              <c:f>Sheet1!$D$50:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>64234.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>64491.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6467.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6323.333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1123,7 +1274,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$46</c:f>
+              <c:f>Sheet1!$E$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1135,29 +1286,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$47:$B$48</c:f>
+              <c:f>Sheet1!$B$50:$B$53</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Sweep</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compact-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sweep-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$47:$E$48</c:f>
+              <c:f>Sheet1!$E$50:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>21214.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2081.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2137.666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,7 +1331,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$46</c:f>
+              <c:f>Sheet1!$F$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1180,29 +1343,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$47:$B$48</c:f>
+              <c:f>Sheet1!$B$50:$B$53</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Sweep</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compact-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sweep-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$47:$F$48</c:f>
+              <c:f>Sheet1!$F$50:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2010.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>937.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>209.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,11 +1393,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2116325560"/>
-        <c:axId val="-2106700232"/>
+        <c:axId val="-2130453832"/>
+        <c:axId val="-2130451128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2116325560"/>
+        <c:axId val="-2130453832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106700232"/>
+        <c:crossAx val="-2130451128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1239,7 +1414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2106700232"/>
+        <c:axId val="-2130451128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1425,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116325560"/>
+        <c:crossAx val="-2130453832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1298,7 +1473,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$51</c:f>
+              <c:f>Sheet1!$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1310,29 +1485,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$52:$B$53</c:f>
+              <c:f>Sheet1!$B$58:$B$61</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Sweep</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compact-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sweep-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$52:$C$53</c:f>
+              <c:f>Sheet1!$C$58:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>165202</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>117653.3333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81476.33333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88816.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1343,7 +1530,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$51</c:f>
+              <c:f>Sheet1!$D$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1355,29 +1542,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$52:$B$53</c:f>
+              <c:f>Sheet1!$B$58:$B$61</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Sweep</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compact-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sweep-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$52:$D$53</c:f>
+              <c:f>Sheet1!$D$58:$D$61</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>55497.33333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>53164.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9372.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9714.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,7 +1587,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$51</c:f>
+              <c:f>Sheet1!$E$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1400,29 +1599,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$52:$B$53</c:f>
+              <c:f>Sheet1!$B$58:$B$61</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Sweep</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compact-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sweep-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$52:$E$53</c:f>
+              <c:f>Sheet1!$E$58:$E$61</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>11062.66666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8721.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6165.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8520.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1433,7 +1644,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$51</c:f>
+              <c:f>Sheet1!$F$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1445,29 +1656,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$52:$B$53</c:f>
+              <c:f>Sheet1!$B$58:$B$61</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Sweep</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compact-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sweep-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$52:$F$53</c:f>
+              <c:f>Sheet1!$F$58:$F$61</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1177.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3774.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3301.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>864.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1483,11 +1706,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2107425976"/>
-        <c:axId val="-2127281000"/>
+        <c:axId val="-2130425096"/>
+        <c:axId val="-2130421976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2107425976"/>
+        <c:axId val="-2130425096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1496,7 +1719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127281000"/>
+        <c:crossAx val="-2130421976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1504,7 +1727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127281000"/>
+        <c:axId val="-2130421976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,7 +1738,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107425976"/>
+        <c:crossAx val="-2130425096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1563,7 +1786,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$56</c:f>
+              <c:f>Sheet1!$C$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1575,29 +1798,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$57:$B$58</c:f>
+              <c:f>Sheet1!$B$66:$B$69</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Sweep</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compact-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sweep-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$57:$C$58</c:f>
+              <c:f>Sheet1!$C$66:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>75358.66666666669</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>76064.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69324.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68507.66666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1608,7 +1843,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$56</c:f>
+              <c:f>Sheet1!$D$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1620,29 +1855,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$57:$B$58</c:f>
+              <c:f>Sheet1!$B$66:$B$69</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Sweep</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compact-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sweep-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$57:$D$58</c:f>
+              <c:f>Sheet1!$D$66:$D$69</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>73599.33333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72150.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14278.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13861.66666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,7 +1900,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$56</c:f>
+              <c:f>Sheet1!$E$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1665,29 +1912,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$57:$B$58</c:f>
+              <c:f>Sheet1!$B$66:$B$69</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Sweep</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compact-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sweep-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$57:$E$58</c:f>
+              <c:f>Sheet1!$E$66:$E$69</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>9465.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9430.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6864.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8143.333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1698,7 +1957,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$56</c:f>
+              <c:f>Sheet1!$F$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1710,29 +1969,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$57:$B$58</c:f>
+              <c:f>Sheet1!$B$66:$B$69</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Sweep</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compact-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sweep-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$57:$F$58</c:f>
+              <c:f>Sheet1!$F$66:$F$69</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1398.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4661.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5575.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1208.333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1748,11 +2019,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2116384744"/>
-        <c:axId val="-2122544904"/>
+        <c:axId val="-2134841112"/>
+        <c:axId val="-2134844248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2116384744"/>
+        <c:axId val="-2134841112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1761,7 +2032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122544904"/>
+        <c:crossAx val="-2134844248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1769,7 +2040,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122544904"/>
+        <c:axId val="-2134844248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +2051,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116384744"/>
+        <c:crossAx val="-2134841112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1807,15 +2078,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>90900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>107000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1837,15 +2108,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>103600</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1867,15 +2138,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>8350</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>30800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1897,15 +2168,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>71850</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>157800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2249,10 +2520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:P58"/>
+  <dimension ref="B5:AF69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2261,13 +2532,20 @@
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="11.83203125" customWidth="1"/>
     <col min="15" max="15" width="11.83203125" customWidth="1"/>
     <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="2.83203125" customWidth="1"/>
+    <col min="18" max="18" width="2.33203125" customWidth="1"/>
+    <col min="23" max="24" width="12.33203125" customWidth="1"/>
+    <col min="25" max="25" width="2.6640625" customWidth="1"/>
+    <col min="31" max="31" width="12" customWidth="1"/>
+    <col min="32" max="32" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:32">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -2280,8 +2558,14 @@
       <c r="K5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:16">
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -2318,8 +2602,32 @@
       <c r="P6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="S6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32">
       <c r="C7">
         <v>161846</v>
       </c>
@@ -2356,8 +2664,44 @@
       <c r="P7">
         <v>898244608</v>
       </c>
-    </row>
-    <row r="8" spans="2:16">
+      <c r="S7">
+        <v>96663</v>
+      </c>
+      <c r="T7">
+        <v>14414</v>
+      </c>
+      <c r="U7">
+        <v>12646</v>
+      </c>
+      <c r="V7">
+        <v>5606</v>
+      </c>
+      <c r="W7">
+        <v>283779072</v>
+      </c>
+      <c r="X7">
+        <v>1055531008</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32">
       <c r="C8">
         <v>157450</v>
       </c>
@@ -2394,8 +2738,44 @@
       <c r="P8">
         <v>915021824</v>
       </c>
-    </row>
-    <row r="9" spans="2:16">
+      <c r="S8">
+        <v>95782</v>
+      </c>
+      <c r="T8">
+        <v>14172</v>
+      </c>
+      <c r="U8">
+        <v>12459</v>
+      </c>
+      <c r="V8">
+        <v>5583</v>
+      </c>
+      <c r="W8">
+        <v>283779072</v>
+      </c>
+      <c r="X8">
+        <v>1055531008</v>
+      </c>
+      <c r="AA8">
+        <v>93027</v>
+      </c>
+      <c r="AB8">
+        <v>13914</v>
+      </c>
+      <c r="AC8">
+        <v>9436</v>
+      </c>
+      <c r="AD8">
+        <v>1218</v>
+      </c>
+      <c r="AE8">
+        <v>283779072</v>
+      </c>
+      <c r="AF8">
+        <v>988422144</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32">
       <c r="C9">
         <v>160168</v>
       </c>
@@ -2432,8 +2812,44 @@
       <c r="P9">
         <v>915021824</v>
       </c>
-    </row>
-    <row r="10" spans="2:16">
+      <c r="S9">
+        <v>95683</v>
+      </c>
+      <c r="T9">
+        <v>14250</v>
+      </c>
+      <c r="U9">
+        <v>12214</v>
+      </c>
+      <c r="V9">
+        <v>5536</v>
+      </c>
+      <c r="W9">
+        <v>283779072</v>
+      </c>
+      <c r="X9">
+        <v>1055531008</v>
+      </c>
+      <c r="AA9">
+        <v>91071</v>
+      </c>
+      <c r="AB9">
+        <v>13855</v>
+      </c>
+      <c r="AC9">
+        <v>9316</v>
+      </c>
+      <c r="AD9">
+        <v>1200</v>
+      </c>
+      <c r="AE9">
+        <v>283779072</v>
+      </c>
+      <c r="AF9">
+        <v>988422144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -2488,8 +2904,53 @@
         <f t="shared" si="1"/>
         <v>909429418.66666663</v>
       </c>
-    </row>
-    <row r="11" spans="2:16">
+      <c r="R10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="1">
+        <f>AVERAGE(S7:S9)</f>
+        <v>96042.666666666672</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" ref="T10:X10" si="2">AVERAGE(T7:T9)</f>
+        <v>14278.666666666666</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="2"/>
+        <v>12439.666666666666</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="2"/>
+        <v>5575</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="2"/>
+        <v>283779072</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="2"/>
+        <v>1055531008</v>
+      </c>
+      <c r="AA10">
+        <v>91065</v>
+      </c>
+      <c r="AB10">
+        <v>13816</v>
+      </c>
+      <c r="AC10">
+        <v>9303</v>
+      </c>
+      <c r="AD10">
+        <v>1207</v>
+      </c>
+      <c r="AE10">
+        <v>283779072</v>
+      </c>
+      <c r="AF10">
+        <v>988422144</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -2498,23 +2959,23 @@
         <v>2218.4087390139207</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ref="D11:H11" si="2">STDEVA(D7:D9)</f>
+        <f t="shared" ref="D11:H11" si="3">STDEVA(D7:D9)</f>
         <v>1281.382976839217</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>726.11110260987834</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9686330.1738524977</v>
       </c>
       <c r="J11" t="s">
@@ -2525,35 +2986,127 @@
         <v>2789.5956696266935</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" ref="L11:P11" si="3">STDEVA(L7:L9)</f>
+        <f t="shared" ref="L11:P11" si="4">STDEVA(L7:L9)</f>
         <v>781.62203141927876</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>972.47107926148635</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>288.91694308226369</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9686330.1738524977</v>
       </c>
-    </row>
-    <row r="13" spans="2:16">
+      <c r="R11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="1">
+        <f>STDEVA(S7:S9)</f>
+        <v>539.5000772319994</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" ref="T11:X11" si="5">STDEVA(T7:T9)</f>
+        <v>123.52057858241005</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="5"/>
+        <v>216.64794790935207</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="5"/>
+        <v>35.679125549822544</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="1">
+        <f>AVERAGE(AA8:AA10)</f>
+        <v>91721</v>
+      </c>
+      <c r="AB11" s="1">
+        <f t="shared" ref="AB11:AF11" si="6">AVERAGE(AB8:AB10)</f>
+        <v>13861.666666666666</v>
+      </c>
+      <c r="AC11" s="1">
+        <f t="shared" si="6"/>
+        <v>9351.6666666666661</v>
+      </c>
+      <c r="AD11" s="1">
+        <f t="shared" si="6"/>
+        <v>1208.3333333333333</v>
+      </c>
+      <c r="AE11" s="1">
+        <f t="shared" si="6"/>
+        <v>283779072</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="6"/>
+        <v>988422144</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32">
+      <c r="Z12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA12" s="1">
+        <f>STDEVA(AA8:AA10)</f>
+        <v>1131.0331560126785</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" ref="AB12:AF12" si="7">STDEVA(AB8:AB10)</f>
+        <v>49.338963642676291</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="7"/>
+        <v>73.323484187082471</v>
+      </c>
+      <c r="AD12" s="1">
+        <f t="shared" si="7"/>
+        <v>9.0737717258774655</v>
+      </c>
+      <c r="AE12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32">
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="K13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:16">
+      <c r="S13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+    </row>
+    <row r="14" spans="2:32">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -2590,8 +3143,29 @@
       <c r="P14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="2:16">
+      <c r="S14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" t="s">
+        <v>6</v>
+      </c>
+      <c r="V14" t="s">
+        <v>7</v>
+      </c>
+      <c r="W14" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32">
       <c r="C15">
         <v>232383</v>
       </c>
@@ -2628,8 +3202,44 @@
       <c r="P15">
         <v>1938432000</v>
       </c>
-    </row>
-    <row r="16" spans="2:16">
+      <c r="S15">
+        <v>100447</v>
+      </c>
+      <c r="T15">
+        <v>9445</v>
+      </c>
+      <c r="U15">
+        <v>9431</v>
+      </c>
+      <c r="V15">
+        <v>3336</v>
+      </c>
+      <c r="W15">
+        <v>1055531008</v>
+      </c>
+      <c r="X15">
+        <v>2028609536</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32">
       <c r="C16">
         <v>232025</v>
       </c>
@@ -2666,8 +3276,44 @@
       <c r="P16">
         <v>1938432000</v>
       </c>
-    </row>
-    <row r="17" spans="2:16">
+      <c r="S16">
+        <v>100326</v>
+      </c>
+      <c r="T16">
+        <v>9295</v>
+      </c>
+      <c r="U16">
+        <v>9565</v>
+      </c>
+      <c r="V16">
+        <v>3287</v>
+      </c>
+      <c r="W16">
+        <v>1055531008</v>
+      </c>
+      <c r="X16">
+        <v>2028609536</v>
+      </c>
+      <c r="AA16">
+        <v>107997</v>
+      </c>
+      <c r="AB16">
+        <v>9740</v>
+      </c>
+      <c r="AC16">
+        <v>9502</v>
+      </c>
+      <c r="AD16">
+        <v>862</v>
+      </c>
+      <c r="AE16">
+        <v>988422144</v>
+      </c>
+      <c r="AF16">
+        <v>2011832320</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32">
       <c r="C17">
         <v>234411</v>
       </c>
@@ -2704,8 +3350,44 @@
       <c r="P17">
         <v>1938432000</v>
       </c>
-    </row>
-    <row r="18" spans="2:16">
+      <c r="S17">
+        <v>100172</v>
+      </c>
+      <c r="T17">
+        <v>9377</v>
+      </c>
+      <c r="U17">
+        <v>9403</v>
+      </c>
+      <c r="V17">
+        <v>3280</v>
+      </c>
+      <c r="W17">
+        <v>1055531008</v>
+      </c>
+      <c r="X17">
+        <v>2028609536</v>
+      </c>
+      <c r="AA17">
+        <v>108076</v>
+      </c>
+      <c r="AB17">
+        <v>9727</v>
+      </c>
+      <c r="AC17">
+        <v>9358</v>
+      </c>
+      <c r="AD17">
+        <v>870</v>
+      </c>
+      <c r="AE17">
+        <v>988422144</v>
+      </c>
+      <c r="AF17">
+        <v>2011832320</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32">
       <c r="B18" t="s">
         <v>12</v>
       </c>
@@ -2714,23 +3396,23 @@
         <v>232939.66666666666</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ref="D18" si="4">AVERAGE(D15:D17)</f>
+        <f t="shared" ref="D18" si="8">AVERAGE(D15:D17)</f>
         <v>55497.333333333336</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18" si="5">AVERAGE(E15:E17)</f>
+        <f t="shared" ref="E18" si="9">AVERAGE(E15:E17)</f>
         <v>12240.333333333334</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" ref="F18" si="6">AVERAGE(F15:F17)</f>
+        <f t="shared" ref="F18" si="10">AVERAGE(F15:F17)</f>
         <v>1177.6666666666667</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" ref="G18" si="7">AVERAGE(G15:G17)</f>
+        <f t="shared" ref="G18" si="11">AVERAGE(G15:G17)</f>
         <v>959761066.66666663</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" ref="H18" si="8">AVERAGE(H15:H17)</f>
+        <f t="shared" ref="H18" si="12">AVERAGE(H15:H17)</f>
         <v>1888100352</v>
       </c>
       <c r="J18" t="s">
@@ -2741,27 +3423,72 @@
         <v>183314.33333333334</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" ref="L18:P18" si="9">AVERAGE(L15:L17)</f>
+        <f t="shared" ref="L18:P18" si="13">AVERAGE(L15:L17)</f>
         <v>53164.666666666664</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12496.333333333334</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3774.6666666666665</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>909429418.66666663</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1938432000</v>
       </c>
-    </row>
-    <row r="19" spans="2:16">
+      <c r="R18" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="1">
+        <f>AVERAGE(S15:S17)</f>
+        <v>100315</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" ref="T18:X18" si="14">AVERAGE(T15:T17)</f>
+        <v>9372.3333333333339</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="14"/>
+        <v>9466.3333333333339</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" si="14"/>
+        <v>3301</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" si="14"/>
+        <v>1055531008</v>
+      </c>
+      <c r="X18" s="1">
+        <f t="shared" si="14"/>
+        <v>2028609536</v>
+      </c>
+      <c r="AA18">
+        <v>107669</v>
+      </c>
+      <c r="AB18">
+        <v>9675</v>
+      </c>
+      <c r="AC18">
+        <v>9292</v>
+      </c>
+      <c r="AD18">
+        <v>860</v>
+      </c>
+      <c r="AE18">
+        <v>988422144</v>
+      </c>
+      <c r="AF18">
+        <v>2011832320</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32">
       <c r="B19" t="s">
         <v>11</v>
       </c>
@@ -2770,23 +3497,23 @@
         <v>1286.723487519107</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:H19" si="10">STDEVA(D15:D17)</f>
+        <f t="shared" ref="D19:H19" si="15">STDEVA(D15:D17)</f>
         <v>237.92085518788244</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>285.14090084260681</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6.6583281184793925</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9686330.1738524977</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J19" t="s">
@@ -2797,35 +3524,121 @@
         <v>13089.733470675916</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" ref="L19:P19" si="11">STDEVA(L15:L17)</f>
+        <f t="shared" ref="L19:P19" si="16">STDEVA(L15:L17)</f>
         <v>2343.0220513971553</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>196.52056720184109</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>108.28819572480342</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9686330.1738524977</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19" s="1">
+        <f>STDEVA(S15:S17)</f>
+        <v>137.82960494755835</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" ref="T19:X19" si="17">STDEVA(T15:T17)</f>
+        <v>75.10880995817557</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="17"/>
+        <v>86.587143002488148</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" si="17"/>
+        <v>30.512292604784715</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA19" s="1">
+        <f>AVERAGE(AA16:AA18)</f>
+        <v>107914</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AF19" si="18">AVERAGE(AB16:AB18)</f>
+        <v>9714</v>
+      </c>
+      <c r="AC19" s="1">
+        <f t="shared" si="18"/>
+        <v>9384</v>
+      </c>
+      <c r="AD19" s="1">
+        <f t="shared" si="18"/>
+        <v>864</v>
+      </c>
+      <c r="AE19" s="1">
+        <f t="shared" si="18"/>
+        <v>988422144</v>
+      </c>
+      <c r="AF19" s="1">
+        <f t="shared" si="18"/>
+        <v>2011832320</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32">
+      <c r="Z20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA20" s="1">
+        <f>STDEVA(AA16:AA18)</f>
+        <v>215.82168565739636</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" ref="AB20:AF20" si="19">STDEVA(AB16:AB18)</f>
+        <v>34.394767043839678</v>
+      </c>
+      <c r="AC20" s="1">
+        <f t="shared" si="19"/>
+        <v>107.38715006927039</v>
+      </c>
+      <c r="AD20" s="1">
+        <f t="shared" si="19"/>
+        <v>5.2915026221291814</v>
+      </c>
+      <c r="AE20" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32">
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="K21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="2:16">
+      <c r="S21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -2862,8 +3675,29 @@
       <c r="P22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="2:16">
+      <c r="S22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" t="s">
+        <v>7</v>
+      </c>
+      <c r="W22" t="s">
+        <v>9</v>
+      </c>
+      <c r="X22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32">
       <c r="C23">
         <v>504871</v>
       </c>
@@ -2900,8 +3734,44 @@
       <c r="P23">
         <v>1938432000</v>
       </c>
-    </row>
-    <row r="24" spans="2:16">
+      <c r="S23">
+        <v>104700</v>
+      </c>
+      <c r="T23">
+        <v>6469</v>
+      </c>
+      <c r="U23">
+        <v>2994</v>
+      </c>
+      <c r="V23">
+        <v>937</v>
+      </c>
+      <c r="W23">
+        <v>2028609536</v>
+      </c>
+      <c r="X23">
+        <v>2028609536</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32">
       <c r="C24">
         <v>508849</v>
       </c>
@@ -2938,8 +3808,44 @@
       <c r="P24">
         <v>1938432000</v>
       </c>
-    </row>
-    <row r="25" spans="2:16">
+      <c r="S24">
+        <v>106618</v>
+      </c>
+      <c r="T24">
+        <v>6513</v>
+      </c>
+      <c r="U24">
+        <v>3042</v>
+      </c>
+      <c r="V24">
+        <v>943</v>
+      </c>
+      <c r="W24">
+        <v>2028609536</v>
+      </c>
+      <c r="X24">
+        <v>2028609536</v>
+      </c>
+      <c r="AA24">
+        <v>114082</v>
+      </c>
+      <c r="AB24">
+        <v>6320</v>
+      </c>
+      <c r="AC24">
+        <v>2361</v>
+      </c>
+      <c r="AD24">
+        <v>205</v>
+      </c>
+      <c r="AE24">
+        <v>2011832320</v>
+      </c>
+      <c r="AF24">
+        <v>2011832320</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32">
       <c r="C25">
         <v>516318</v>
       </c>
@@ -2976,8 +3882,44 @@
       <c r="P25">
         <v>1938432000</v>
       </c>
-    </row>
-    <row r="26" spans="2:16">
+      <c r="S25">
+        <v>104848</v>
+      </c>
+      <c r="T25">
+        <v>6419</v>
+      </c>
+      <c r="U25">
+        <v>3021</v>
+      </c>
+      <c r="V25">
+        <v>932</v>
+      </c>
+      <c r="W25">
+        <v>2028609536</v>
+      </c>
+      <c r="X25">
+        <v>2028609536</v>
+      </c>
+      <c r="AA25">
+        <v>114103</v>
+      </c>
+      <c r="AB25">
+        <v>6302</v>
+      </c>
+      <c r="AC25">
+        <v>2336</v>
+      </c>
+      <c r="AD25">
+        <v>216</v>
+      </c>
+      <c r="AE25">
+        <v>2011832320</v>
+      </c>
+      <c r="AF25">
+        <v>2011832320</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32">
       <c r="B26" t="s">
         <v>12</v>
       </c>
@@ -2986,23 +3928,23 @@
         <v>510012.66666666669</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26" si="12">AVERAGE(D23:D25)</f>
+        <f t="shared" ref="D26" si="20">AVERAGE(D23:D25)</f>
         <v>64234</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" ref="E26" si="13">AVERAGE(E23:E25)</f>
+        <f t="shared" ref="E26" si="21">AVERAGE(E23:E25)</f>
         <v>23224.666666666668</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ref="F26" si="14">AVERAGE(F23:F25)</f>
+        <f t="shared" ref="F26" si="22">AVERAGE(F23:F25)</f>
         <v>2010.6666666666667</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26" si="15">AVERAGE(G23:G25)</f>
+        <f t="shared" ref="G26" si="23">AVERAGE(G23:G25)</f>
         <v>1888100352</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" ref="H26" si="16">AVERAGE(H23:H25)</f>
+        <f t="shared" ref="H26" si="24">AVERAGE(H23:H25)</f>
         <v>1888100352</v>
       </c>
       <c r="J26" t="s">
@@ -3013,27 +3955,72 @@
         <v>408169</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" ref="L26:P26" si="17">AVERAGE(L23:L25)</f>
+        <f t="shared" ref="L26:P26" si="25">AVERAGE(L23:L25)</f>
         <v>64491.666666666664</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1938432000</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1938432000</v>
       </c>
-    </row>
-    <row r="27" spans="2:16">
+      <c r="R26" t="s">
+        <v>12</v>
+      </c>
+      <c r="S26" s="1">
+        <f>AVERAGE(S23:S25)</f>
+        <v>105388.66666666667</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" ref="T26:X26" si="26">AVERAGE(T23:T25)</f>
+        <v>6467</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="26"/>
+        <v>3019</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="26"/>
+        <v>937.33333333333337</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="26"/>
+        <v>2028609536</v>
+      </c>
+      <c r="X26" s="1">
+        <f t="shared" si="26"/>
+        <v>2028609536</v>
+      </c>
+      <c r="AA26">
+        <v>114791</v>
+      </c>
+      <c r="AB26">
+        <v>6348</v>
+      </c>
+      <c r="AC26">
+        <v>2343</v>
+      </c>
+      <c r="AD26">
+        <v>206</v>
+      </c>
+      <c r="AE26">
+        <v>2028609536</v>
+      </c>
+      <c r="AF26">
+        <v>2028609536</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -3042,23 +4029,23 @@
         <v>5811.5438855207258</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" ref="D27:H27" si="18">STDEVA(D23:D25)</f>
+        <f t="shared" ref="D27:H27" si="27">STDEVA(D23:D25)</f>
         <v>822.88334531694102</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>99.901618271844484</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>10.016652800877813</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J27" t="s">
@@ -3069,35 +4056,121 @@
         <v>20443.610175309055</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" ref="L27:P27" si="19">STDEVA(L23:L25)</f>
+        <f t="shared" ref="L27:P27" si="28">STDEVA(L23:L25)</f>
         <v>1233.9417868494986</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
+        <v>11</v>
+      </c>
+      <c r="S27" s="1">
+        <f>STDEVA(S23:S25)</f>
+        <v>1067.20257371004</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" ref="T27:X27" si="29">STDEVA(T23:T25)</f>
+        <v>47.031904065219386</v>
+      </c>
+      <c r="U27" s="1">
+        <f t="shared" si="29"/>
+        <v>24.06241883103193</v>
+      </c>
+      <c r="V27" s="1">
+        <f t="shared" si="29"/>
+        <v>5.5075705472861021</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA27" s="1">
+        <f>AVERAGE(AA24:AA26)</f>
+        <v>114325.33333333333</v>
+      </c>
+      <c r="AB27" s="1">
+        <f t="shared" ref="AB27:AF27" si="30">AVERAGE(AB24:AB26)</f>
+        <v>6323.333333333333</v>
+      </c>
+      <c r="AC27" s="1">
+        <f t="shared" si="30"/>
+        <v>2346.6666666666665</v>
+      </c>
+      <c r="AD27" s="1">
+        <f t="shared" si="30"/>
+        <v>209</v>
+      </c>
+      <c r="AE27" s="1">
+        <f t="shared" si="30"/>
+        <v>2017424725.3333333</v>
+      </c>
+      <c r="AF27" s="1">
+        <f t="shared" si="30"/>
+        <v>2017424725.3333333</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32">
+      <c r="Z28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA28" s="1">
+        <f>STDEVA(AA24:AA26)</f>
+        <v>403.41583178320275</v>
+      </c>
+      <c r="AB28" s="1">
+        <f t="shared" ref="AB28:AF28" si="31">STDEVA(AB24:AB26)</f>
+        <v>23.180451534284945</v>
+      </c>
+      <c r="AC28" s="1">
+        <f t="shared" si="31"/>
+        <v>12.897028081435401</v>
+      </c>
+      <c r="AD28" s="1">
+        <f t="shared" si="31"/>
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="AE28" s="1">
+        <f t="shared" si="31"/>
+        <v>9686330.1738524958</v>
+      </c>
+      <c r="AF28" s="1">
+        <f t="shared" si="31"/>
+        <v>9686330.1738524958</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32">
       <c r="C29" t="s">
         <v>3</v>
       </c>
       <c r="K29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="2:16">
+      <c r="S29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -3134,8 +4207,29 @@
       <c r="P30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="2:16">
+      <c r="S30" t="s">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s">
+        <v>5</v>
+      </c>
+      <c r="U30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V30" t="s">
+        <v>7</v>
+      </c>
+      <c r="W30" t="s">
+        <v>9</v>
+      </c>
+      <c r="X30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32">
       <c r="C31">
         <v>597</v>
       </c>
@@ -3172,8 +4266,44 @@
       <c r="P31">
         <v>193601536</v>
       </c>
-    </row>
-    <row r="32" spans="2:16">
+      <c r="S31">
+        <v>1134</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>1134</v>
+      </c>
+      <c r="V31">
+        <v>838</v>
+      </c>
+      <c r="W31">
+        <v>2028609536</v>
+      </c>
+      <c r="X31">
+        <v>300556288</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32">
       <c r="C32">
         <v>596</v>
       </c>
@@ -3210,8 +4340,44 @@
       <c r="P32">
         <v>193601536</v>
       </c>
-    </row>
-    <row r="33" spans="2:16">
+      <c r="S32">
+        <v>1109</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>1109</v>
+      </c>
+      <c r="V32">
+        <v>824</v>
+      </c>
+      <c r="W32">
+        <v>2028609536</v>
+      </c>
+      <c r="X32">
+        <v>300556288</v>
+      </c>
+      <c r="AA32">
+        <v>610</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>610</v>
+      </c>
+      <c r="AD32">
+        <v>315</v>
+      </c>
+      <c r="AE32">
+        <v>2011832320</v>
+      </c>
+      <c r="AF32">
+        <v>652877824</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32">
       <c r="C33">
         <v>624</v>
       </c>
@@ -3243,14 +4409,50 @@
         <v>805</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" ref="L33:P34" si="20">AVERAGE(O30:O32)</f>
+        <f t="shared" ref="L33:P34" si="32">AVERAGE(O30:O32)</f>
         <v>1938432000</v>
       </c>
       <c r="P33">
         <v>193601536</v>
       </c>
-    </row>
-    <row r="34" spans="2:16">
+      <c r="S33">
+        <v>1116</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>1115</v>
+      </c>
+      <c r="V33">
+        <v>826</v>
+      </c>
+      <c r="W33" s="1">
+        <v>2028609536</v>
+      </c>
+      <c r="X33">
+        <v>300556288</v>
+      </c>
+      <c r="AA33">
+        <v>611</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>610</v>
+      </c>
+      <c r="AD33">
+        <v>315</v>
+      </c>
+      <c r="AE33">
+        <v>2011832320</v>
+      </c>
+      <c r="AF33">
+        <v>652877824</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32">
       <c r="B34" t="s">
         <v>12</v>
       </c>
@@ -3259,23 +4461,23 @@
         <v>605.66666666666663</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ref="D34" si="21">AVERAGE(D31:D33)</f>
+        <f t="shared" ref="D34" si="33">AVERAGE(D31:D33)</f>
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" ref="E34" si="22">AVERAGE(E31:E33)</f>
+        <f t="shared" ref="E34" si="34">AVERAGE(E31:E33)</f>
         <v>604.66666666666663</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ref="F34" si="23">AVERAGE(F31:F33)</f>
+        <f t="shared" ref="F34" si="35">AVERAGE(F31:F33)</f>
         <v>316</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" ref="G34" si="24">AVERAGE(G31:G33)</f>
+        <f t="shared" ref="G34" si="36">AVERAGE(G31:G33)</f>
         <v>1888100352</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" ref="H34" si="25">AVERAGE(H31:H33)</f>
+        <f t="shared" ref="H34" si="37">AVERAGE(H31:H33)</f>
         <v>534738261.33333331</v>
       </c>
       <c r="J34" t="s">
@@ -3286,27 +4488,72 @@
         <v>1092.3333333333333</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1092</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>806</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1938432000</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>193601536</v>
       </c>
-    </row>
-    <row r="35" spans="2:16">
+      <c r="R34" t="s">
+        <v>12</v>
+      </c>
+      <c r="S34" s="1">
+        <f>AVERAGE(S31:S33)</f>
+        <v>1119.6666666666667</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" ref="T34:X34" si="38">AVERAGE(T31:T33)</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <f t="shared" si="38"/>
+        <v>1119.3333333333333</v>
+      </c>
+      <c r="V34" s="1">
+        <f t="shared" si="38"/>
+        <v>829.33333333333337</v>
+      </c>
+      <c r="W34" s="1">
+        <f t="shared" si="38"/>
+        <v>2028609536</v>
+      </c>
+      <c r="X34" s="1">
+        <f t="shared" si="38"/>
+        <v>300556288</v>
+      </c>
+      <c r="AA34">
+        <v>610</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>609</v>
+      </c>
+      <c r="AD34">
+        <v>312</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>2028609536</v>
+      </c>
+      <c r="AF34">
+        <v>300556288</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -3315,23 +4562,23 @@
         <v>15.88500340992514</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:H35" si="26">STDEVA(D31:D33)</f>
+        <f t="shared" ref="D35:H35" si="39">STDEVA(D31:D33)</f>
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>15.88500340992514</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>12.165525060596439</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>58919646.23760701</v>
       </c>
       <c r="J35" t="s">
@@ -3342,27 +4589,118 @@
         <v>1.5275252316519468</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" ref="L35:P35" si="27">STDEVA(L31:L33)</f>
+        <f t="shared" ref="L35:P35" si="40">STDEVA(L31:L33)</f>
         <v>0</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>2.6457513110645907</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="R35" t="s">
+        <v>11</v>
+      </c>
+      <c r="S35" s="1">
+        <f>STDEVA(S31:S33)</f>
+        <v>12.897028081435403</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" ref="T35:X35" si="41">STDEVA(T31:T33)</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <f t="shared" si="41"/>
+        <v>13.051181300301263</v>
+      </c>
+      <c r="V35" s="1">
+        <f t="shared" si="41"/>
+        <v>7.5718777944003657</v>
+      </c>
+      <c r="W35" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA35" s="1">
+        <f>AVERAGE(AA32:AA34)</f>
+        <v>610.33333333333337</v>
+      </c>
+      <c r="AB35" s="1">
+        <f t="shared" ref="AB35:AF35" si="42">AVERAGE(AB32:AB34)</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1">
+        <f>AVERAGE(AC32:AC34)</f>
+        <v>609.66666666666663</v>
+      </c>
+      <c r="AD35" s="1">
+        <f t="shared" ref="AD35:AF35" si="43">AVERAGE(AD32:AD34)</f>
+        <v>314</v>
+      </c>
+      <c r="AE35" s="1">
+        <f t="shared" si="43"/>
+        <v>2017424725.3333333</v>
+      </c>
+      <c r="AF35" s="1">
+        <f t="shared" si="43"/>
+        <v>535437312</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32">
+      <c r="Z36" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA36" s="1">
+        <f>STDEVA(AA32:AA34)</f>
+        <v>0.57735026918962573</v>
+      </c>
+      <c r="AB36" s="1">
+        <f t="shared" ref="AB36:AF36" si="44">STDEVA(AB32:AB34)</f>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1">
+        <f t="shared" si="44"/>
+        <v>0.57735026918962573</v>
+      </c>
+      <c r="AD36" s="1">
+        <f t="shared" si="44"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="AE36" s="1">
+        <f t="shared" si="44"/>
+        <v>9686330.1738524958</v>
+      </c>
+      <c r="AF36" s="1">
+        <f t="shared" si="44"/>
+        <v>203412933.65090242</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32">
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+    </row>
+    <row r="40" spans="2:32">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -3371,7 +4709,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:32">
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
@@ -3385,7 +4723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:32">
       <c r="B42" t="s">
         <v>15</v>
       </c>
@@ -3406,7 +4744,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:32">
       <c r="B43" t="s">
         <v>14</v>
       </c>
@@ -3426,197 +4764,373 @@
         <v>806</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="44" spans="2:32">
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="1">
+        <f>S34-T34-U34</f>
+        <v>0.33333333333348492</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <f>U34-V34</f>
+        <v>289.99999999999989</v>
+      </c>
+      <c r="F44" s="1">
+        <f>V34</f>
+        <v>829.33333333333337</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32">
       <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="1">
+        <f>AA35-AC35</f>
+        <v>0.66666666666674246</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <f>AC35-AD35</f>
+        <v>295.66666666666663</v>
+      </c>
+      <c r="F45" s="1">
+        <f>AD35</f>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32">
+      <c r="C46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="2:32">
+      <c r="C47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="2:32">
+      <c r="B48" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="2:16">
-      <c r="C46" s="1" t="s">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="C49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:16">
-      <c r="B47" t="s">
+    <row r="50" spans="2:6">
+      <c r="B50" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C50" s="1">
         <f>C26-D26-E26</f>
         <v>422554</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D50" s="1">
         <f>D26</f>
         <v>64234</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E50" s="1">
         <f>E26-F26</f>
         <v>21214</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F50" s="1">
         <f>F26</f>
         <v>2010.6666666666667</v>
       </c>
     </row>
-    <row r="48" spans="2:16">
-      <c r="B48" t="s">
+    <row r="51" spans="2:6">
+      <c r="B51" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C51" s="1">
         <f>K26-L26</f>
         <v>343677.33333333331</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D51" s="1">
         <f>L26</f>
         <v>64491.666666666664</v>
       </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="C51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>7</v>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="1">
+        <f>S26-T26-U26</f>
+        <v>95902.666666666672</v>
+      </c>
+      <c r="D52" s="1">
+        <f>T26</f>
+        <v>6467</v>
+      </c>
+      <c r="E52" s="1">
+        <f>U26-V26</f>
+        <v>2081.6666666666665</v>
+      </c>
+      <c r="F52" s="1">
+        <f>V26</f>
+        <v>937.33333333333337</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="1">
+        <f>AA27-AB27-AC27</f>
+        <v>105655.33333333333</v>
+      </c>
+      <c r="D53" s="1">
+        <f>AB27</f>
+        <v>6323.333333333333</v>
+      </c>
+      <c r="E53" s="1">
+        <f>AC27-AD27</f>
+        <v>2137.6666666666665</v>
+      </c>
+      <c r="F53" s="1">
+        <f>AD27</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="C57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C58" s="1">
         <f>C18-D18-E18</f>
         <v>165201.99999999997</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D58" s="1">
         <f>D18</f>
         <v>55497.333333333336</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E58" s="1">
         <f>E18-F18</f>
         <v>11062.666666666668</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F58" s="1">
         <f>F18</f>
         <v>1177.6666666666667</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
-      <c r="B53" t="s">
+    <row r="59" spans="2:6">
+      <c r="B59" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C59" s="1">
         <f>K18-L18-M18</f>
         <v>117653.33333333336</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D59" s="1">
         <f>L18</f>
         <v>53164.666666666664</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E59" s="1">
         <f>M18-N18</f>
         <v>8721.6666666666679</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F59" s="1">
         <f>N18</f>
         <v>3774.6666666666665</v>
       </c>
     </row>
-    <row r="55" spans="2:6">
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="C56" s="1" t="s">
+    <row r="60" spans="2:6">
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="1">
+        <f>S18-T18-U18</f>
+        <v>81476.333333333343</v>
+      </c>
+      <c r="D60" s="1">
+        <f>T18</f>
+        <v>9372.3333333333339</v>
+      </c>
+      <c r="E60" s="1">
+        <f>U18-V18</f>
+        <v>6165.3333333333339</v>
+      </c>
+      <c r="F60" s="1">
+        <f>V18</f>
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="1">
+        <f>AA19-AB19-AC19</f>
+        <v>88816</v>
+      </c>
+      <c r="D61" s="1">
+        <f>AB19</f>
+        <v>9714</v>
+      </c>
+      <c r="E61" s="1">
+        <f>AC19-AD19</f>
+        <v>8520</v>
+      </c>
+      <c r="F61" s="1">
+        <f>AD19</f>
+        <v>864</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="C65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="2:6">
-      <c r="B57" t="s">
+    <row r="66" spans="2:6">
+      <c r="B66" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C66" s="1">
         <f>C10-D10-E10</f>
         <v>75358.666666666686</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D66" s="1">
         <f>D10</f>
         <v>73599.333333333328</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E66" s="1">
         <f>E10-F10</f>
         <v>9465.3333333333339</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F66" s="1">
         <f>F10</f>
         <v>1398</v>
       </c>
     </row>
-    <row r="58" spans="2:6">
-      <c r="B58" t="s">
+    <row r="67" spans="2:6">
+      <c r="B67" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C67" s="1">
         <f>K10-L10-M10</f>
         <v>76064</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D67" s="1">
         <f>L10</f>
         <v>72150</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E67" s="1">
         <f>M10-N10</f>
         <v>9430</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F67" s="1">
         <f>N10</f>
         <v>4661</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="1">
+        <f>S10-T10-U10</f>
+        <v>69324.333333333328</v>
+      </c>
+      <c r="D68" s="1">
+        <f>T10</f>
+        <v>14278.666666666666</v>
+      </c>
+      <c r="E68" s="1">
+        <f>U10-V10</f>
+        <v>6864.6666666666661</v>
+      </c>
+      <c r="F68" s="1">
+        <f>V10</f>
+        <v>5575</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="1">
+        <f>AA11-AB11-AC11</f>
+        <v>68507.666666666657</v>
+      </c>
+      <c r="D69" s="1">
+        <f>AB11</f>
+        <v>13861.666666666666</v>
+      </c>
+      <c r="E69" s="1">
+        <f>AC11-AD11</f>
+        <v>8143.333333333333</v>
+      </c>
+      <c r="F69" s="1">
+        <f>AD11</f>
+        <v>1208.3333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/figures/BenchGC.xlsx
+++ b/figures/BenchGC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="0" windowWidth="35580" windowHeight="19460" tabRatio="500"/>
+    <workbookView xWindow="11220" yWindow="0" windowWidth="35580" windowHeight="19460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,8 +139,196 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="331">
+  <cellStyleXfs count="519">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -478,7 +666,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="331">
+  <cellStyles count="519">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -644,6 +832,100 @@
     <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -809,6 +1091,100 @@
     <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1080,11 +1456,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2134749304"/>
-        <c:axId val="-2134752440"/>
+        <c:axId val="-2117452392"/>
+        <c:axId val="-2117449272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2134749304"/>
+        <c:axId val="-2117452392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1093,7 +1469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134752440"/>
+        <c:crossAx val="-2117449272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1101,7 +1477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134752440"/>
+        <c:axId val="-2117449272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1488,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134749304"/>
+        <c:crossAx val="-2117452392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1393,11 +1769,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2130453832"/>
-        <c:axId val="-2130451128"/>
+        <c:axId val="-2117412424"/>
+        <c:axId val="-2117409304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2130453832"/>
+        <c:axId val="-2117412424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,7 +1782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130451128"/>
+        <c:crossAx val="-2117409304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1414,7 +1790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130451128"/>
+        <c:axId val="-2117409304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1425,7 +1801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130453832"/>
+        <c:crossAx val="-2117412424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1706,11 +2082,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2130425096"/>
-        <c:axId val="-2130421976"/>
+        <c:axId val="-2117373896"/>
+        <c:axId val="-2117370776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2130425096"/>
+        <c:axId val="-2117373896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1719,7 +2095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130421976"/>
+        <c:crossAx val="-2117370776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1727,7 +2103,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130421976"/>
+        <c:axId val="-2117370776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1738,7 +2114,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130425096"/>
+        <c:crossAx val="-2117373896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2019,11 +2395,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2134841112"/>
-        <c:axId val="-2134844248"/>
+        <c:axId val="-2117335688"/>
+        <c:axId val="-2117332568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2134841112"/>
+        <c:axId val="-2117335688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,7 +2408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134844248"/>
+        <c:crossAx val="-2117332568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2040,7 +2416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134844248"/>
+        <c:axId val="-2117332568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2051,7 +2427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134841112"/>
+        <c:crossAx val="-2117335688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2522,8 +2898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:AF69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="N6" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2538,7 +2914,7 @@
     <col min="15" max="15" width="11.83203125" customWidth="1"/>
     <col min="16" max="16" width="13.33203125" customWidth="1"/>
     <col min="17" max="17" width="2.83203125" customWidth="1"/>
-    <col min="18" max="18" width="2.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" customWidth="1"/>
     <col min="23" max="24" width="12.33203125" customWidth="1"/>
     <col min="25" max="25" width="2.6640625" customWidth="1"/>
     <col min="31" max="31" width="12" customWidth="1"/>
@@ -4014,10 +4390,10 @@
         <v>206</v>
       </c>
       <c r="AE26">
-        <v>2028609536</v>
+        <v>2011832320</v>
       </c>
       <c r="AF26">
-        <v>2028609536</v>
+        <v>2011832320</v>
       </c>
     </row>
     <row r="27" spans="2:32">
@@ -4123,11 +4499,11 @@
       </c>
       <c r="AE27" s="1">
         <f t="shared" si="30"/>
-        <v>2017424725.3333333</v>
+        <v>2011832320</v>
       </c>
       <c r="AF27" s="1">
         <f t="shared" si="30"/>
-        <v>2017424725.3333333</v>
+        <v>2011832320</v>
       </c>
     </row>
     <row r="28" spans="2:32">
@@ -4152,11 +4528,11 @@
       </c>
       <c r="AE28" s="1">
         <f t="shared" si="31"/>
-        <v>9686330.1738524958</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="1">
         <f t="shared" si="31"/>
-        <v>9686330.1738524958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:32">
@@ -4643,7 +5019,7 @@
         <v>610.33333333333337</v>
       </c>
       <c r="AB35" s="1">
-        <f t="shared" ref="AB35:AF35" si="42">AVERAGE(AB32:AB34)</f>
+        <f t="shared" ref="AB35" si="42">AVERAGE(AB32:AB34)</f>
         <v>0</v>
       </c>
       <c r="AC35" s="1">
